--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_7_9.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_7_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,621 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_0</t>
+          <t>model_7_9_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2968045173389513</v>
+        <v>0.8051527574306611</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2280670423816539</v>
+        <v>0.3571871387255203</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.04447517976867</v>
+        <v>-3.414186181067846</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.4160763064884392</v>
+        <v>-0.0950500691864502</v>
       </c>
       <c r="F2" t="n">
-        <v>1.43518054485321</v>
+        <v>0.2156384885311127</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8639645576477051</v>
+        <v>0.6085723638534546</v>
       </c>
       <c r="H2" t="n">
-        <v>1.560502767562866</v>
+        <v>0.7437629699707031</v>
       </c>
       <c r="I2" t="n">
-        <v>1.191752195358276</v>
+        <v>0.6721917986869812</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_1</t>
+          <t>model_7_9_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09750479381192956</v>
+        <v>0.8059775252917172</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.9487798699609347</v>
+        <v>0.3611886883211213</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.033083991617632</v>
+        <v>-3.381981137552415</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.9547653367730362</v>
+        <v>-0.08762251096688445</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9987961649894714</v>
+        <v>0.2147257030010223</v>
       </c>
       <c r="G3" t="n">
-        <v>2.18111777305603</v>
+        <v>0.6047839522361755</v>
       </c>
       <c r="H3" t="n">
-        <v>1.042095303535461</v>
+        <v>0.7383365631103516</v>
       </c>
       <c r="I3" t="n">
-        <v>1.645106196403503</v>
+        <v>0.6676324605941772</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_2</t>
+          <t>model_7_9_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1322964175242056</v>
+        <v>0.8067786356822158</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.8370554441974201</v>
+        <v>0.3652607565990997</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.038296212154745</v>
+        <v>-3.350864644433456</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.8776034557762</v>
+        <v>-0.0802782813183851</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9602921605110168</v>
+        <v>0.213839128613472</v>
       </c>
       <c r="G4" t="n">
-        <v>2.056073188781738</v>
+        <v>0.6009288430213928</v>
       </c>
       <c r="H4" t="n">
-        <v>1.044766902923584</v>
+        <v>0.7330936193466187</v>
       </c>
       <c r="I4" t="n">
-        <v>1.580167651176453</v>
+        <v>0.6631242036819458</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_3</t>
+          <t>model_7_9_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1587653867124513</v>
+        <v>0.8075879361699952</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.7422516061341329</v>
+        <v>0.369249891183979</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.103486512900774</v>
+        <v>-3.31746852490921</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.8295356669895668</v>
+        <v>-0.07270708278244387</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9309988021850586</v>
+        <v>0.2129434496164322</v>
       </c>
       <c r="G5" t="n">
-        <v>1.949966907501221</v>
+        <v>0.5971521735191345</v>
       </c>
       <c r="H5" t="n">
-        <v>1.078181385993958</v>
+        <v>0.7274665832519531</v>
       </c>
       <c r="I5" t="n">
-        <v>1.539714455604553</v>
+        <v>0.6584766507148743</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_4</t>
+          <t>model_7_9_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.187013346972098</v>
+        <v>0.8084681234697515</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6197767511276426</v>
+        <v>0.3737561330882341</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.234637953270603</v>
+        <v>-3.28339345358619</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.7808980160182193</v>
+        <v>-0.06462603265679978</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8997367024421692</v>
+        <v>0.2119693458080292</v>
       </c>
       <c r="G6" t="n">
-        <v>1.8128901720047</v>
+        <v>0.5928859710693359</v>
       </c>
       <c r="H6" t="n">
-        <v>1.145405530929565</v>
+        <v>0.7217251062393188</v>
       </c>
       <c r="I6" t="n">
-        <v>1.498781681060791</v>
+        <v>0.6535161137580872</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_5</t>
+          <t>model_7_9_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2202688657655087</v>
+        <v>0.8093878739994109</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4117944662016737</v>
+        <v>0.3781107403989143</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.492321365189366</v>
+        <v>-3.245661194444701</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.7083161510954643</v>
+        <v>-0.05619699178946203</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8629326224327087</v>
+        <v>0.2109514474868774</v>
       </c>
       <c r="G7" t="n">
-        <v>1.580111742019653</v>
+        <v>0.5887632966041565</v>
       </c>
       <c r="H7" t="n">
-        <v>1.277485966682434</v>
+        <v>0.7153674960136414</v>
       </c>
       <c r="I7" t="n">
-        <v>1.437697649002075</v>
+        <v>0.6483420133590698</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_6</t>
+          <t>model_7_9_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2429188638260905</v>
+        <v>0.8102836627551147</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3272921741310482</v>
+        <v>0.3828586816190225</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.575320065979965</v>
+        <v>-3.210487823013826</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.6726083513870487</v>
+        <v>-0.04777721437983673</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8378657102584839</v>
+        <v>0.209960088133812</v>
       </c>
       <c r="G8" t="n">
-        <v>1.485535025596619</v>
+        <v>0.5842682719230652</v>
       </c>
       <c r="H8" t="n">
-        <v>1.32002854347229</v>
+        <v>0.7094410061836243</v>
       </c>
       <c r="I8" t="n">
-        <v>1.407646417617798</v>
+        <v>0.6431735157966614</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_13</t>
+          <t>model_7_9_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.407404668746051</v>
+        <v>0.8111397944438427</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4020657362824692</v>
+        <v>0.3875931499582037</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.212118740624071</v>
+        <v>-3.175888168681357</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9148383185076334</v>
+        <v>-0.03944199835004714</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6558284759521484</v>
+        <v>0.2090125977993011</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6692213416099548</v>
+        <v>0.5797860026359558</v>
       </c>
       <c r="H9" t="n">
-        <v>2.671568870544434</v>
+        <v>0.7036111354827881</v>
       </c>
       <c r="I9" t="n">
-        <v>1.611504077911377</v>
+        <v>0.6380570530891418</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_14</t>
+          <t>model_7_9_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4354629580602808</v>
+        <v>0.8120333461211127</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3252088859408191</v>
+        <v>0.3922411821162277</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.230103556026881</v>
+        <v>-3.138048322955895</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9741063779160861</v>
+        <v>-0.03075728167006431</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6247760653495789</v>
+        <v>0.2080236822366714</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7552412152290344</v>
+        <v>0.575385570526123</v>
       </c>
       <c r="H10" t="n">
-        <v>2.680787324905396</v>
+        <v>0.6972353458404541</v>
       </c>
       <c r="I10" t="n">
-        <v>1.661383390426636</v>
+        <v>0.6327259540557861</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_7</t>
+          <t>model_7_9_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4420237425763888</v>
+        <v>0.8129445311470461</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07685170946049757</v>
+        <v>0.3969942450583754</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.469254596308734</v>
+        <v>-3.09937117833863</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3576713098555515</v>
+        <v>-0.02188083745649272</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6175152659416199</v>
+        <v>0.2070153057575226</v>
       </c>
       <c r="G11" t="n">
-        <v>1.033208131790161</v>
+        <v>0.5708855986595154</v>
       </c>
       <c r="H11" t="n">
-        <v>1.265662670135498</v>
+        <v>0.6907185316085815</v>
       </c>
       <c r="I11" t="n">
-        <v>1.14259922504425</v>
+        <v>0.627277135848999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_8</t>
+          <t>model_7_9_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4474279028256045</v>
+        <v>0.8137078040993939</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0714161038712483</v>
+        <v>0.4009877974847715</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.533393670330588</v>
+        <v>-3.060737272901118</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.3798811868648571</v>
+        <v>-0.01362988729968406</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6115345358848572</v>
+        <v>0.2061705589294434</v>
       </c>
       <c r="G12" t="n">
-        <v>1.039291739463806</v>
+        <v>0.5671048760414124</v>
       </c>
       <c r="H12" t="n">
-        <v>1.298538327217102</v>
+        <v>0.6842089295387268</v>
       </c>
       <c r="I12" t="n">
-        <v>1.161290764808655</v>
+        <v>0.6222124099731445</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_16</t>
+          <t>model_7_9_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4579588329254074</v>
+        <v>0.814544113019412</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5065536462649781</v>
+        <v>0.4060163579901461</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.77316550133936</v>
+        <v>-3.024955661981612</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.002070700745256</v>
+        <v>-0.004901226901900868</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5998799204826355</v>
+        <v>0.2052450180053711</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5522761344909668</v>
+        <v>0.5623441338539124</v>
       </c>
       <c r="H13" t="n">
-        <v>2.959144115447998</v>
+        <v>0.6781800389289856</v>
       </c>
       <c r="I13" t="n">
-        <v>1.684917807579041</v>
+        <v>0.6168543100357056</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_11</t>
+          <t>model_7_9_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4606251566868783</v>
+        <v>0.8153089468311172</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2776525423414554</v>
+        <v>0.4106813086730439</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.261234900845999</v>
+        <v>-2.988251207413242</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.4432856047368761</v>
+        <v>0.003646604703333001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5969290137290955</v>
+        <v>0.2043985575437546</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8084673881530762</v>
+        <v>0.5579277276992798</v>
       </c>
       <c r="H14" t="n">
-        <v>1.67160701751709</v>
+        <v>0.6719955205917358</v>
       </c>
       <c r="I14" t="n">
-        <v>1.214651226997375</v>
+        <v>0.6116072535514832</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_10</t>
+          <t>model_7_9_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4640022998189395</v>
+        <v>0.8160603455728173</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2307359009301428</v>
+        <v>0.4161427624766562</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.969432852292454</v>
+        <v>-2.956438451727058</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.3926870457613103</v>
+        <v>0.01221548384536386</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5931915044784546</v>
+        <v>0.2035669982433319</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8609774708747864</v>
+        <v>0.5527570843696594</v>
       </c>
       <c r="H15" t="n">
-        <v>1.522038459777832</v>
+        <v>0.6666352152824402</v>
       </c>
       <c r="I15" t="n">
-        <v>1.172068119049072</v>
+        <v>0.6063473224639893</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_12</t>
+          <t>model_7_9_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4646194858845243</v>
+        <v>0.8167924148382092</v>
       </c>
       <c r="C16" t="n">
-        <v>0.324210187868422</v>
+        <v>0.4211846534008626</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.434063512387672</v>
+        <v>-2.921935748942603</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.46003843379561</v>
+        <v>0.02079054209161513</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5925084352493286</v>
+        <v>0.2027567923069</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7563590407371521</v>
+        <v>0.5479838252067566</v>
       </c>
       <c r="H16" t="n">
-        <v>1.760193586349487</v>
+        <v>0.660821795463562</v>
       </c>
       <c r="I16" t="n">
-        <v>1.228750228881836</v>
+        <v>0.6010834574699402</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_15</t>
+          <t>model_7_9_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4710878996774979</v>
+        <v>0.8175460424441786</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5646227121164167</v>
+        <v>0.4264303189421452</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.606778622738816</v>
+        <v>-2.886235028068094</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.9135013259561795</v>
+        <v>0.02968380691646466</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5853498578071594</v>
+        <v>0.2019227594137192</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4872839748859406</v>
+        <v>0.543017566204071</v>
       </c>
       <c r="H17" t="n">
-        <v>2.873859405517578</v>
+        <v>0.6548064947128296</v>
       </c>
       <c r="I17" t="n">
-        <v>1.610378861427307</v>
+        <v>0.5956244468688965</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_9</t>
+          <t>model_7_9_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4768182213198506</v>
+        <v>0.8181541341143521</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1657101878543107</v>
+        <v>0.4319044790902338</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.563413709318348</v>
+        <v>-2.856603188249268</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.3220964619562299</v>
+        <v>0.03798165264255637</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5790081024169922</v>
+        <v>0.2012497633695602</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9337557554244995</v>
+        <v>0.5378349423408508</v>
       </c>
       <c r="H18" t="n">
-        <v>1.313925623893738</v>
+        <v>0.6498136520385742</v>
       </c>
       <c r="I18" t="n">
-        <v>1.112659931182861</v>
+        <v>0.5905308723449707</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_17</t>
+          <t>model_7_9_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5013220003443661</v>
+        <v>0.8187747907233892</v>
       </c>
       <c r="C19" t="n">
-        <v>0.542574948899585</v>
+        <v>0.4376679490047077</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.302784348031463</v>
+        <v>-2.827230820904878</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.8418972862131682</v>
+        <v>0.04648225729135669</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5518895983695984</v>
+        <v>0.200562909245491</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5119602680206299</v>
+        <v>0.5323784947395325</v>
       </c>
       <c r="H19" t="n">
-        <v>2.71804141998291</v>
+        <v>0.6448646187782288</v>
       </c>
       <c r="I19" t="n">
-        <v>1.55011785030365</v>
+        <v>0.5853127837181091</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_18</t>
+          <t>model_7_9_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5183095175484185</v>
+        <v>0.819294623741498</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5728000011334435</v>
+        <v>0.4426451514574946</v>
       </c>
       <c r="D20" t="n">
-        <v>-4.217771727414787</v>
+        <v>-2.795692205420966</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.7962454325823531</v>
+        <v>0.05462016926893531</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5330893993377686</v>
+        <v>0.1999876350164413</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4781317114830017</v>
+        <v>0.527666449546814</v>
       </c>
       <c r="H20" t="n">
-        <v>2.674466609954834</v>
+        <v>0.639550507068634</v>
       </c>
       <c r="I20" t="n">
-        <v>1.511697888374329</v>
+        <v>0.5803173780441284</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_19</t>
+          <t>model_7_9_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5625320453109968</v>
+        <v>0.8197217330019009</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5459972132938458</v>
+        <v>0.4477244674822253</v>
       </c>
       <c r="D21" t="n">
-        <v>-3.837764859831108</v>
+        <v>-2.767077397166287</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.7062090905898473</v>
+        <v>0.06246258941991101</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4841481149196625</v>
+        <v>0.1995149105787277</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5081300139427185</v>
+        <v>0.5228577256202698</v>
       </c>
       <c r="H21" t="n">
-        <v>2.479686975479126</v>
+        <v>0.6347291469573975</v>
       </c>
       <c r="I21" t="n">
-        <v>1.435924291610718</v>
+        <v>0.5755033493041992</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_7_9_4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8199889714809315</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4527281690723072</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-2.744374830428599</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.06948024541546527</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1992191523313522</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5181205272674561</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6309038400650024</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5711955428123474</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_7_9_3</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8201706992472464</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4579003664384543</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-2.724744402352817</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.07623974519756527</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1990180313587189</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5132238268852234</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.6275962591171265</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.5670462846755981</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_7_9_2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8202694615576511</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4627862888377087</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-2.705261233096862</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0827463814110232</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.198908731341362</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5085981488227844</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.6243134737014771</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.563052237033844</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_7_9_0</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8203433966964468</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4719407136084411</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-2.660441333820163</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.09601129379997952</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1988269090652466</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.4999313950538635</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.6167616248130798</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.5549095273017883</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_7_9_1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8204704538135593</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.4676024849160307</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-2.678108489783365</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.09018606877622792</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1986862868070602</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.5040385723114014</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.6197383999824524</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.5584853887557983</v>
       </c>
     </row>
   </sheetData>
